--- a/src/main/resources/template/excel/export/storeChargeDetailExportTemplate.xlsx
+++ b/src/main/resources/template/excel/export/storeChargeDetailExportTemplate.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
@@ -132,17 +132,17 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(G3:G3+0)]</t>
+    <t>$[SUMPRODUCT(G3:G3:G3+0)]</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -251,14 +251,14 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -320,7 +320,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -355,7 +355,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -567,7 +567,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -580,16 +580,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -636,7 +636,7 @@
       <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -652,7 +652,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="4"/>
